--- a/Data/DM/11226681985ADJ DM.xlsx
+++ b/Data/DM/11226681985ADJ DM.xlsx
@@ -106,25 +106,25 @@
     <x:t>Quantity Variance</x:t>
   </x:si>
   <x:si>
+    <x:t>-63.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>981-000507</x:t>
+  </x:si>
+  <x:si>
     <x:t>100284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>981-000507</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-63.6</x:t>
   </x:si>
   <x:si>
     <x:t>2804574</x:t>
@@ -620,28 +620,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
         <x:v>27</x:v>
@@ -756,28 +756,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P4" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="s">
         <x:v>27</x:v>
